--- a/MainTop/26.08.2024/ozon_print_birki.xlsx
+++ b/MainTop/26.08.2024/ozon_print_birki.xlsx
@@ -43,13 +43,13 @@
     <t xml:space="preserve">Оценка Оборачиваемости</t>
   </si>
   <si>
+    <t xml:space="preserve">Unnamed: 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип упорядочить</t>
+  </si>
+  <si>
     <t xml:space="preserve">Num_Copies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unnamed: 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип упорядочить</t>
   </si>
   <si>
     <t xml:space="preserve">Термобирки Единороги</t>
@@ -232,10 +232,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="topLeft" activeCell="M21" activeCellId="0" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -243,7 +243,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,13 +270,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -313,6 +315,10 @@
         <f aca="false">H2/4</f>
         <v>45</v>
       </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">K2*2</f>
+        <v>90</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -346,8 +352,11 @@
         <v>12</v>
       </c>
       <c r="K3" s="2" t="n">
-        <f aca="false">H3/4</f>
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">K3*2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,8 +391,11 @@
         <v>12</v>
       </c>
       <c r="K4" s="2" t="n">
-        <f aca="false">H4/4</f>
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">K4*2</f>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,8 +430,11 @@
         <v>12</v>
       </c>
       <c r="K5" s="2" t="n">
-        <f aca="false">H5/4</f>
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">K5*2</f>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,6 +472,10 @@
         <f aca="false">H6/4</f>
         <v>8</v>
       </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">K6*2</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -493,6 +512,10 @@
         <f aca="false">H7/4</f>
         <v>8</v>
       </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">K7*2</f>
+        <v>16</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -529,6 +552,10 @@
         <f aca="false">H8/4</f>
         <v>7</v>
       </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">K8*2</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -565,6 +592,10 @@
         <f aca="false">H9/4</f>
         <v>4</v>
       </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">K9*2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -598,8 +629,11 @@
         <v>12</v>
       </c>
       <c r="K10" s="2" t="n">
-        <f aca="false">H10/4</f>
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">K10*2</f>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,6 +671,10 @@
         <f aca="false">H11/4</f>
         <v>2</v>
       </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">K11*2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -673,6 +711,10 @@
         <f aca="false">H12/4</f>
         <v>1</v>
       </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">K12*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -709,6 +751,10 @@
         <f aca="false">H13/4</f>
         <v>1</v>
       </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">K13*2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -742,8 +788,11 @@
         <v>12</v>
       </c>
       <c r="K14" s="2" t="n">
-        <f aca="false">H14/4</f>
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">K14*2</f>
+        <v>180</v>
       </c>
     </row>
     <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
